--- a/biology/Médecine/Jean-Baptiste_Faseuille/Jean-Baptiste_Faseuille.xlsx
+++ b/biology/Médecine/Jean-Baptiste_Faseuille/Jean-Baptiste_Faseuille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Baptiste Bruno Faseuille (Toulouse, 26 août 1802-Toulouse, 2 août 1854), est un médecin français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pharmacien surnuméraire à l'hôpital du Val-de-grâce à Paris (1820-1822), pharmacien sous-aide à l'hôpital militaire de Bayonne (1822-1823) puis à l'armée des Pyrénées-Occidentales (1823-1824), il participe à l'armée d'occupation d'Espagne (1824-1827) avant de servir à l'hôpital militaire d'instruction de Strasbourg (1827-1830)[1]. 
-En 1830, il est envoyé en Afrique où il est nommé pharmacien aide-major et y sert jusqu'en 1842. Il est alors médecin-chef de l'hôpital de Douera où il se heurte régulièrement avec son subordonné Charles Cuny[2].
-Pharmacien aide-major de 1re classe à l'hôpital militaire de Saint-Jean-Pied-de-Port (1842-1844) puis de Bayonne (1844-1845) et de Toulouse, il est fait chevalier de la Légion d'honneur le 9 septembre 1848[3]. 
-Il meurt d'une dysenterie épidémique le 2 août 1854 à Toulouse[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pharmacien surnuméraire à l'hôpital du Val-de-grâce à Paris (1820-1822), pharmacien sous-aide à l'hôpital militaire de Bayonne (1822-1823) puis à l'armée des Pyrénées-Occidentales (1823-1824), il participe à l'armée d'occupation d'Espagne (1824-1827) avant de servir à l'hôpital militaire d'instruction de Strasbourg (1827-1830). 
+En 1830, il est envoyé en Afrique où il est nommé pharmacien aide-major et y sert jusqu'en 1842. Il est alors médecin-chef de l'hôpital de Douera où il se heurte régulièrement avec son subordonné Charles Cuny.
+Pharmacien aide-major de 1re classe à l'hôpital militaire de Saint-Jean-Pied-de-Port (1842-1844) puis de Bayonne (1844-1845) et de Toulouse, il est fait chevalier de la Légion d'honneur le 9 septembre 1848. 
+Il meurt d'une dysenterie épidémique le 2 août 1854 à Toulouse. 
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Essai sur le catarrhe vésical, thèse, 1842</t>
         </is>
